--- a/biology/Zoologie/Acomys_russatus/Acomys_russatus.xlsx
+++ b/biology/Zoologie/Acomys_russatus/Acomys_russatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Souris épineuse rousse, Souris épineuse dorée
-Acomys russatus, la Souris épineuse rousse ou Souris épineuse dorée[1], est une espèce de rongeurs de la famille des Muridés.
+Acomys russatus, la Souris épineuse rousse ou Souris épineuse dorée, est une espèce de rongeurs de la famille des Muridés.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre en Arabie saoudite, en Égypte, en Israël, en Jordanie et au Yémen[2]. Sa présence est incertaine en Syrie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre en Arabie saoudite, en Égypte, en Israël, en Jordanie et au Yémen. Sa présence est incertaine en Syrie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (8 février 2023)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (8 février 2023) :
 Acomys russatus lewisi Atallah, 1967
 Acomys russatus russatus (Wagner, 1840)</t>
         </is>
@@ -575,10 +591,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Acomys russatus Wagner, 1840[4].
-Acomys russatus a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Acomys russatus Wagner, 1840.
+Acomys russatus a pour synonymes :
 Acomys lewisi Atallah, 1967
 Acomys russatus aegyptiacus Bonhote, 1912
 Mus affinis Gray, 1843</t>
